--- a/aichan/550600225939306323_2021-07-23_18-10-05.xlsx
+++ b/aichan/550600225939306323_2021-07-23_18-10-05.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5052882780</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-02 17:01:42</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44410.70951388889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-02 04:05:06</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44410.17020833334</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,10 +712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-01 15:25:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44409.64260416666</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -787,10 +797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-01 13:19:51</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44409.55545138889</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -864,10 +872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-31 18:49:40</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44408.78449074074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -931,10 +937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-31 08:55:37</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44408.37195601852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1006,10 +1010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-30 10:48:33</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44407.45038194444</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1069,10 +1071,8 @@
           <t>5022388403</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-29 21:24:35</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44406.89207175926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1140,10 +1140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-29 08:48:03</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44406.36670138889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1215,10 +1213,8 @@
           <t>5011874851</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-28 18:51:39</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44405.78586805556</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1286,10 +1282,8 @@
           <t>5011874851</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-28 17:02:55</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44405.7103587963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1357,10 +1351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-28 10:14:08</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44405.42648148148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1432,10 +1424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-27 17:33:36</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44404.73166666667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1511,10 +1501,8 @@
           <t>4974795829</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-27 16:24:57</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44404.68399305556</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1586,10 +1574,8 @@
           <t>5003147276</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-27 15:46:37</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44404.65737268519</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1657,10 +1643,8 @@
           <t>5003142922</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-27 15:45:48</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44404.65680555555</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1728,10 +1712,8 @@
           <t>5003133788</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-27 15:45:08</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44404.65634259259</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1799,10 +1781,8 @@
           <t>4974795829</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-27 15:44:32</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44404.65592592592</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1862,10 +1842,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-27 14:00:17</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44404.58353009259</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1929,10 +1907,8 @@
           <t>4975224055</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-27 13:59:55</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44404.58327546297</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1996,10 +1972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-27 08:56:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44404.37237268518</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2071,10 +2045,8 @@
           <t>4974050130</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-26 20:47:12</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44403.86611111111</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2134,10 +2106,8 @@
           <t>4996615617</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:58:06</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44403.79034722222</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2205,10 +2175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:34:16</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44403.77379629629</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2285,10 +2253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:24:14</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44403.7668287037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2356,10 +2322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:14:18</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44403.71826388889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2435,10 +2399,8 @@
           <t>4989728900</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:32:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44402.85616898148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2510,10 +2472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:32:08</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44402.85564814815</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2585,10 +2545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-25 12:27:59</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44402.51943287037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2652,10 +2610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-25 08:06:20</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44402.33773148148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2731,10 +2687,8 @@
           <t>4984895227</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-25 04:55:28</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44402.20518518519</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2811,10 +2765,8 @@
           <t>4974599853</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-24 23:03:53</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44401.96103009259</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2887,10 +2839,8 @@
           <t>4983385289</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:49:09</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44401.95079861111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2958,10 +2908,8 @@
           <t>4983385289</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:46:59</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44401.94929398148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3029,10 +2977,8 @@
           <t>4983429156</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:44:51</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44401.9478125</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3096,10 +3042,8 @@
           <t>4983398644</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:41:15</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44401.9453125</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3163,10 +3107,8 @@
           <t>4983385289</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-24 22:38:03</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44401.94309027777</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3230,10 +3172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-24 20:50:20</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44401.86828703704</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3305,10 +3245,8 @@
           <t>4981428560</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-24 18:11:35</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44401.75804398148</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3376,10 +3314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-24 16:30:18</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44401.68770833333</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3443,10 +3379,8 @@
           <t>4979472923</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-24 12:49:56</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44401.53467592593</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3522,10 +3456,8 @@
           <t>4974896747</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-24 12:33:20</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44401.52314814815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3601,10 +3533,8 @@
           <t>4974896747</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:54:27</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44401.49614583333</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3680,10 +3610,8 @@
           <t>4974896747</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:44:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44401.48954861111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3759,10 +3687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:41:55</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44401.44577546296</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3834,10 +3760,8 @@
           <t>4978528510</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:27:15</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44401.43559027778</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3905,10 +3829,8 @@
           <t>4978515620</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:23:14</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44401.43280092593</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3976,10 +3898,8 @@
           <t>4978506774</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:22:38</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44401.43238425926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4047,10 +3967,8 @@
           <t>4978293478</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:46:59</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44401.40762731482</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4126,10 +4044,8 @@
           <t>4978293478</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:46:08</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44401.40703703704</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4205,10 +4121,8 @@
           <t>4978249488</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:37:35</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44401.40109953703</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4276,10 +4190,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:22:06</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44401.39034722222</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4355,10 +4267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:19:42</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44401.38868055555</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4418,10 +4328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:07:18</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44401.38006944444</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4493,10 +4401,8 @@
           <t>4976537450</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:59:24</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44401.37458333333</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4564,10 +4470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:53:39</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44401.37059027778</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4643,10 +4547,8 @@
           <t>4974795829</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:48:11</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44401.36679398148</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4718,10 +4620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:45:53</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44401.36519675926</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4789,10 +4689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:45:35</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44401.36498842593</v>
       </c>
       <c r="I60" t="n">
         <v>6</v>
@@ -4856,10 +4754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:19:18</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44401.34673611111</v>
       </c>
       <c r="I61" t="n">
         <v>4</v>
@@ -4923,10 +4819,8 @@
           <t>4977917457</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:19:14</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44401.34668981482</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4994,10 +4888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-24 07:42:00</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44401.32083333333</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5073,10 +4965,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-24 07:40:49</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44401.32001157408</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5140,10 +5030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-24 07:31:12</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44401.31333333333</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5215,10 +5103,8 @@
           <t>4977279383</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-24 07:11:53</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44401.29991898148</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5286,10 +5172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:48:42</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44401.28381944444</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5349,10 +5233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-24 06:30:30</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44401.27118055556</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5421,10 +5303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-24 05:23:26</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44401.22460648148</v>
       </c>
       <c r="I69" t="n">
         <v>5</v>
@@ -5488,10 +5368,8 @@
           <t>4977279383</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-24 04:27:04</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44401.18546296296</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -5559,10 +5437,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-24 03:14:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44401.13524305556</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5630,10 +5506,8 @@
           <t>4976783170</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-24 03:12:12</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44401.13347222222</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5705,10 +5579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-24 03:03:09</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44401.1271875</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5776,10 +5648,8 @@
           <t>4977414443</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-24 03:02:46</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44401.12692129629</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5855,10 +5725,8 @@
           <t>4977279383</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-24 02:05:15</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44401.08697916667</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5932,10 +5800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-24 01:06:00</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44401.04583333333</v>
       </c>
       <c r="I76" t="n">
         <v>7</v>
@@ -5999,10 +5865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:58:39</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44401.04072916666</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6078,10 +5942,8 @@
           <t>4976987963</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:53:18</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44401.03701388889</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
@@ -6145,10 +6007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:40:44</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44401.02828703704</v>
       </c>
       <c r="I79" t="n">
         <v>9</v>
@@ -6235,10 +6095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:24:46</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44401.01719907407</v>
       </c>
       <c r="I80" t="n">
         <v>7</v>
@@ -6302,10 +6160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:23:52</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44401.01657407408</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6384,10 +6240,8 @@
           <t>4976801620</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:20:00</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44401.01388888889</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6455,10 +6309,8 @@
           <t>4976783170</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-24 00:17:24</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44401.01208333333</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6518,10 +6370,8 @@
           <t>4976493485</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:47:13</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44400.99112268518</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6594,10 +6444,8 @@
           <t>4976550983</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:43:04</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44400.98824074074</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6668,10 +6516,8 @@
           <t>4976537450</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:41:45</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44400.98732638889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6747,10 +6593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:41:18</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44400.98701388889</v>
       </c>
       <c r="I87" t="n">
         <v>13</v>
@@ -6826,10 +6670,8 @@
           <t>4976501381</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:37:07</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44400.9841087963</v>
       </c>
       <c r="I88" t="n">
         <v>8</v>
@@ -6905,10 +6747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:36:38</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44400.98377314815</v>
       </c>
       <c r="I89" t="n">
         <v>9</v>
@@ -6984,10 +6824,8 @@
           <t>4976493664</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:36:38</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44400.98377314815</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7063,10 +6901,8 @@
           <t>4976493485</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:36:34</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44400.98372685185</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7142,10 +6978,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:25:52</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44400.9762962963</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7221,10 +7055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:21:36</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44400.97333333334</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7284,10 +7116,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:16:20</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44400.96967592592</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7355,10 +7185,8 @@
           <t>4976116065</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:07:43</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44400.96369212963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7426,10 +7254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:04:41</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44400.96158564815</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7497,10 +7323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:56:30</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44400.95590277778</v>
       </c>
       <c r="I97" t="n">
         <v>56</v>
@@ -7564,10 +7388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:56:29</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44400.9558912037</v>
       </c>
       <c r="I98" t="n">
         <v>7</v>
@@ -7635,10 +7457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:54:48</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44400.95472222222</v>
       </c>
       <c r="I99" t="n">
         <v>6</v>
@@ -7702,10 +7522,8 @@
           <t>4976116065</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:49:22</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44400.95094907407</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7769,10 +7587,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:47:14</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44400.9494675926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7836,10 +7652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:46:26</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44400.94891203703</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7911,10 +7725,8 @@
           <t>4976090654</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:45:48</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44400.94847222222</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7982,10 +7794,8 @@
           <t>4975115194</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:43:04</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44400.94657407407</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8061,10 +7871,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:39:04</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44400.9437962963</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8128,10 +7936,8 @@
           <t>4975224055</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:38:07</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44400.94313657407</v>
       </c>
       <c r="I106" t="n">
         <v>6</v>
@@ -8199,10 +8005,8 @@
           <t>4976013969</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:37:42</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44400.94284722222</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8278,10 +8082,8 @@
           <t>4975115194</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:37:13</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44400.94251157407</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8349,10 +8151,8 @@
           <t>4974896747</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:35:21</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44400.94121527778</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8428,10 +8228,8 @@
           <t>4974467440</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:35:12</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44400.94111111111</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8507,10 +8305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:33:02</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44400.93960648148</v>
       </c>
       <c r="I111" t="n">
         <v>9</v>
@@ -8578,10 +8374,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:29:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44400.93722222222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8649,10 +8443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:29:06</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44400.936875</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8720,10 +8512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:27:38</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44400.93585648148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8799,10 +8589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:25:24</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44400.93430555556</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8879,10 +8667,8 @@
           <t>4975520702</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:17:54</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44400.92909722222</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8958,10 +8744,8 @@
           <t>4975813761</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:12:39</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44400.92545138889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9037,10 +8821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:04:56</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44400.92009259259</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9112,10 +8894,8 @@
           <t>4974039492</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:54:17</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44400.91269675926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9184,10 +8964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:53:58</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44400.91247685185</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9259,10 +9037,8 @@
           <t>4975553871</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:48:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44400.90894675926</v>
       </c>
       <c r="I121" t="n">
         <v>9</v>
@@ -9326,10 +9102,8 @@
           <t>4974896747</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:46:21</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44400.9071875</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9405,10 +9179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:42:31</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44400.90452546296</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9476,10 +9248,8 @@
           <t>4975559044</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:41:07</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44400.90355324074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9547,10 +9317,8 @@
           <t>4975553871</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:40:22</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44400.9030324074</v>
       </c>
       <c r="I125" t="n">
         <v>11</v>
@@ -9618,10 +9386,8 @@
           <t>4975552924</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:39:59</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44400.9027662037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9685,10 +9451,8 @@
           <t>4975520702</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:39:53</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44400.90269675926</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9756,10 +9520,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:38:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44400.90150462963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9827,10 +9589,8 @@
           <t>4975520702</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:35:13</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44400.89945601852</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9907,10 +9667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:30:38</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44400.89627314815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9978,10 +9736,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:23:30</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44400.89131944445</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10049,10 +9805,8 @@
           <t>4974896747</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:23:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44400.89098379629</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10128,10 +9882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:19:50</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44400.88877314814</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10199,10 +9951,8 @@
           <t>4975394274</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:19:45</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44400.88871527778</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -10266,10 +10016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:12:08</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44400.88342592592</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10333,10 +10081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:09:47</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44400.88179398148</v>
       </c>
       <c r="I136" t="n">
         <v>15</v>
@@ -10404,10 +10150,8 @@
           <t>4975325402</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:08:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44400.88121527778</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10475,10 +10219,8 @@
           <t>4975303024</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:07:12</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44400.88</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -10542,10 +10284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:04:37</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44400.87820601852</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10605,10 +10345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:04:22</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44400.87803240741</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10677,10 +10415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:04:03</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44400.8778125</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10756,10 +10492,8 @@
           <t>4975274232</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:03:22</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44400.87733796296</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10823,10 +10557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:03:17</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44400.87728009259</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -10894,10 +10626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:00:09</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44400.87510416667</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10957,10 +10687,8 @@
           <t>4975224055</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:56:50</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44400.87280092593</v>
       </c>
       <c r="I145" t="n">
         <v>6</v>
@@ -11028,10 +10756,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:49:35</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44400.8677662037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11095,10 +10821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:46:34</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44400.8656712963</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11162,10 +10886,8 @@
           <t>4975143310</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:45:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44400.8650462963</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11237,10 +10959,8 @@
           <t>4975115194</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:40:48</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44400.86166666666</v>
       </c>
       <c r="I149" t="n">
         <v>4</v>
@@ -11316,10 +11036,8 @@
           <t>4975090440</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:37:30</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44400.859375</v>
       </c>
       <c r="I150" t="n">
         <v>4</v>
@@ -11387,10 +11105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:36:01</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44400.85834490741</v>
       </c>
       <c r="I151" t="n">
         <v>4</v>
@@ -11458,10 +11174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:35:27</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44400.85795138889</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11525,10 +11239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:31:45</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44400.85538194444</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11592,10 +11304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:28:50</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44400.85335648148</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11670,10 +11380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:28:49</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44400.85334490741</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11737,10 +11445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:27:56</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44400.85273148148</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11858,10 +11564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:27:36</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44400.8525</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11965,10 +11669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:27:16</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44400.85226851852</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12072,10 +11774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:27:06</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44400.85215277778</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12135,10 +11835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:26:40</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44400.85185185185</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12212,10 +11910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:26:38</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44400.8518287037</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12276,10 +11972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:25:55</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44400.85133101852</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12343,10 +12037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:25:48</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44400.85125</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12418,10 +12110,8 @@
           <t>4974996542</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:24:15</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44400.85017361111</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12497,10 +12187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:22:13</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44400.84876157407</v>
       </c>
       <c r="I165" t="n">
         <v>6</v>
@@ -12572,10 +12260,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:19:05</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44400.84658564815</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12647,10 +12333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:18:51</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44400.84642361111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12722,10 +12406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:18:26</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44400.84613425926</v>
       </c>
       <c r="I168" t="n">
         <v>5</v>
@@ -12793,10 +12475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:14:40</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44400.84351851852</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12872,10 +12552,8 @@
           <t>4974875666</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:12:17</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44400.84186342593</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12943,10 +12621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:11:23</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44400.84123842593</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13019,10 +12695,8 @@
           <t>4974896747</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:10:42</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44400.84076388889</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13098,10 +12772,8 @@
           <t>4974114249</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:10:14</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44400.84043981481</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13169,10 +12841,8 @@
           <t>4974875666</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:08:00</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44400.83888888889</v>
       </c>
       <c r="I174" t="n">
         <v>9</v>
@@ -13244,10 +12914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:06:32</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44400.83787037037</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13319,10 +12987,8 @@
           <t>4974862036</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:06:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44400.83778935186</v>
       </c>
       <c r="I176" t="n">
         <v>12</v>
@@ -13394,10 +13060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:05:39</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44400.83725694445</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13461,10 +13125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:00:19</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44400.83355324074</v>
       </c>
       <c r="I178" t="n">
         <v>111</v>
@@ -13540,10 +13202,8 @@
           <t>4974407067</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:59:44</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44400.83314814815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13607,10 +13267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:59:38</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44400.8330787037</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13674,10 +13332,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:58:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44400.83231481481</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13741,10 +13397,8 @@
           <t>4974011124</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:58:15</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44400.83211805556</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13808,10 +13462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:57:26</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44400.83155092593</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13887,10 +13539,8 @@
           <t>4974795829</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:57:13</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44400.83140046296</v>
       </c>
       <c r="I184" t="n">
         <v>5</v>
@@ -13968,10 +13618,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:55:57</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44400.83052083333</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14039,10 +13687,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:53:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44400.82895833333</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14110,10 +13756,8 @@
           <t>4974114249</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:53:27</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44400.82878472222</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14198,10 +13842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:52:11</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44400.82790509259</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14265,10 +13907,8 @@
           <t>4974667990</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:49:43</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44400.82619212963</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14332,10 +13972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:49:42</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44400.82618055555</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14411,10 +14049,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:49:20</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44400.82592592593</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14482,10 +14118,8 @@
           <t>4974704185</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:48:04</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44400.8250462963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14558,10 +14192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:45:52</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44400.82351851852</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14625,10 +14257,8 @@
           <t>4974704185</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:45:33</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44400.82329861111</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14704,10 +14334,8 @@
           <t>4974050130</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:43:25</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44400.82181712963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14783,10 +14411,8 @@
           <t>4974683994</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:43:20</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44400.82175925926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14850,10 +14476,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:42:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44400.82148148148</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14913,10 +14537,8 @@
           <t>4974676106</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:42:02</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44400.82085648148</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14980,10 +14602,8 @@
           <t>4974667990</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44400.82020833333</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15051,10 +14671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:41:03</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44400.82017361111</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15128,10 +14746,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:40:42</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44400.81993055555</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15195,10 +14811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:40:31</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44400.81980324074</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15274,10 +14888,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:39:26</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44400.81905092593</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15353,10 +14965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:39:16</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44400.81893518518</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15416,10 +15026,8 @@
           <t>4974650968</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:38:25</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44400.81834490741</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -15495,10 +15103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:36:58</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44400.81733796297</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15570,10 +15176,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:36:15</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44400.81684027778</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15645,10 +15249,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:35:30</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44400.81631944444</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15712,10 +15314,8 @@
           <t>4974621735</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:34:54</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44400.81590277778</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15779,10 +15379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:34:16</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44400.81546296296</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15850,10 +15448,8 @@
           <t>4974599853</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:32:54</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44400.81451388889</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15917,10 +15513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:32:43</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44400.81438657407</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -15984,10 +15578,8 @@
           <t>4974591532</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:31:00</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44400.81319444445</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -16051,10 +15643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:30:22</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44400.81275462963</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16118,10 +15708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:28:57</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44400.81177083333</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16193,10 +15781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:28:24</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44400.81138888889</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16272,10 +15858,8 @@
           <t>4974556025</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:25:40</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44400.80949074074</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -16351,10 +15935,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:25:22</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44400.8092824074</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16418,10 +16000,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:25:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44400.80915509259</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16489,10 +16069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:23:15</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44400.8078125</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16556,10 +16134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:23:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44400.80765046296</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16635,10 +16211,8 @@
           <t>4974487256</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:19:51</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44400.80545138889</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16711,10 +16285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:19:08</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44400.8049537037</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16782,10 +16354,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:17:33</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44400.80385416667</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16857,10 +16427,8 @@
           <t>4974487256</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:16:49</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44400.80334490741</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -16932,10 +16500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:14:52</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44400.80199074074</v>
       </c>
       <c r="I226" t="n">
         <v>12</v>
@@ -17003,10 +16569,8 @@
           <t>4974467440</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:14:23</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44400.80165509259</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17074,10 +16638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:48</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44400.79986111111</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17145,10 +16707,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:25</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44400.79959490741</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17224,10 +16784,8 @@
           <t>4974439988</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:07</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44400.79938657407</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17303,10 +16861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:07:23</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44400.79679398148</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17378,10 +16934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:06:06</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44400.79590277778</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17453,10 +17007,8 @@
           <t>4974407067</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:05:22</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44400.79539351852</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17524,10 +17076,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:05:21</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44400.79538194444</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17603,10 +17153,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:05:06</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44400.79520833334</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17682,10 +17230,8 @@
           <t>4974406129</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:05:01</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44400.79515046296</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17753,10 +17299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:04:52</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44400.7950462963</v>
       </c>
       <c r="I237" t="n">
         <v>5</v>
@@ -17832,10 +17376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:02:23</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44400.79332175926</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17911,10 +17453,8 @@
           <t>4974377207</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:01:46</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44400.79289351852</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17984,10 +17524,8 @@
           <t>4974376364</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:01:28</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44400.79268518519</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -18055,10 +17593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:00:57</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44400.79232638889</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18126,10 +17662,8 @@
           <t>4974019862</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:00:55</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44400.79230324074</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18197,10 +17731,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:00:47</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44400.79221064815</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18276,10 +17808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:59:09</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44400.79107638889</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18355,10 +17885,8 @@
           <t>4974347819</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:58:23</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44400.79054398148</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18426,10 +17954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:57:22</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44400.78983796296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18497,10 +18023,8 @@
           <t>4974177644</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:57:12</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44400.78972222222</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18560,10 +18084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:56:53</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44400.78950231482</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18631,10 +18153,8 @@
           <t>4974330298</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:36</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44400.78861111111</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18702,10 +18222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:11</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44400.78832175926</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18773,10 +18291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:54:42</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44400.78798611111</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18844,10 +18360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:53:54</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44400.78743055555</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18919,10 +18433,8 @@
           <t>4974310065</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:52:53</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44400.78672453704</v>
       </c>
       <c r="I253" t="n">
         <v>5</v>
@@ -18998,10 +18510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:52:47</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44400.78665509259</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19065,10 +18575,8 @@
           <t>4974299346</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:52:36</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44400.78652777777</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19132,10 +18640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:52:23</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44400.78637731481</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19211,10 +18717,8 @@
           <t>4974301320</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:51:56</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44400.78606481481</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19292,10 +18796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:51:07</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44400.78549768519</v>
       </c>
       <c r="I258" t="n">
         <v>5</v>
@@ -19363,10 +18865,8 @@
           <t>4974295405</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:51:02</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44400.78543981481</v>
       </c>
       <c r="I259" t="n">
         <v>4</v>
@@ -19434,10 +18934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:51:01</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44400.78542824074</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19509,10 +19007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:50:54</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44400.78534722222</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19588,10 +19084,8 @@
           <t>4974286462</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:49:48</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44400.78458333333</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19659,10 +19153,8 @@
           <t>4974271620</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:47:45</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44400.78315972222</v>
       </c>
       <c r="I263" t="n">
         <v>5</v>
@@ -19738,10 +19230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:47:00</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44400.78263888889</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19817,10 +19307,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:47:00</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44400.78263888889</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19888,10 +19376,8 @@
           <t>4974117145</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:27</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44400.78225694445</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19972,10 +19458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:25</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44400.78223379629</v>
       </c>
       <c r="I267" t="n">
         <v>462</v>
@@ -20043,10 +19527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:45:41</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44400.78172453704</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20114,10 +19596,8 @@
           <t>4974247927</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:45:38</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44400.78168981482</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20189,10 +19669,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:45:22</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44400.78150462963</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20268,10 +19746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:58</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44400.78122685185</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20335,10 +19811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:55</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44400.78119212963</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20402,10 +19876,8 @@
           <t>4974143080</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:38</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44400.78099537037</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20465,10 +19937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:20</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44400.78078703704</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20578,10 +20048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:13</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44400.78070601852</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20657,10 +20125,8 @@
           <t>4974239097</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:10</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44400.7806712963</v>
       </c>
       <c r="I276" t="n">
         <v>6</v>
@@ -20740,10 +20206,8 @@
           <t>4974238111</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:07</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44400.78063657408</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20811,10 +20275,8 @@
           <t>4974242770</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:44:06</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44400.780625</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20886,10 +20348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:43:49</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44400.78042824074</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20965,10 +20425,8 @@
           <t>4974238111</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:43:48</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44400.78041666667</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21036,10 +20494,8 @@
           <t>4974177644</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:43:18</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44400.78006944444</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21100,10 +20556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:52</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44400.77976851852</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21167,10 +20621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:22</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44400.7794212963</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21234,10 +20686,8 @@
           <t>4974050493</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:22</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44400.7794212963</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21316,10 +20766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:19</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44400.77938657408</v>
       </c>
       <c r="I285" t="n">
         <v>3</v>
@@ -21379,10 +20827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:14</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44400.77932870371</v>
       </c>
       <c r="I286" t="n">
         <v>3</v>
@@ -21447,10 +20893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:46</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44400.77900462963</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21510,10 +20954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:40</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44400.77893518518</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21585,10 +21027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:33</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44400.77885416667</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21648,10 +21088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:30</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44400.77881944444</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21726,10 +21164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:28</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44400.7787962963</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21789,10 +21225,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:17</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44400.77866898148</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21864,10 +21298,8 @@
           <t>4974143080</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:40:23</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44400.77804398148</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21947,10 +21379,8 @@
           <t>4974177644</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:57</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44400.77774305556</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22014,10 +21444,8 @@
           <t>4974204200</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:56</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44400.77773148148</v>
       </c>
       <c r="I295" t="n">
         <v>4</v>
@@ -22085,10 +21513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:36</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44400.7775</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22160,10 +21586,8 @@
           <t>4974189092</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:20</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44400.77731481481</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22227,10 +21651,8 @@
           <t>4974143080</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:39:00</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44400.77708333333</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22310,10 +21732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:26</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44400.77668981482</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22377,10 +21797,8 @@
           <t>4974177644</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:13</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44400.77653935185</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22440,10 +21858,8 @@
           <t>4974171476</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:55</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44400.77633101852</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22519,10 +21935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:44</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44400.7762037037</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22594,10 +22008,8 @@
           <t>4974189092</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:41</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44400.77616898148</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22657,10 +22069,8 @@
           <t>4974050493</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:32</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44400.77606481482</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22724,10 +22134,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:31</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44400.77605324074</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22795,10 +22203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:16</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44400.77587962963</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22874,10 +22280,8 @@
           <t>4974177644</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:55</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44400.77563657407</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22942,10 +22346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:50</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44400.7755787037</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23009,10 +22411,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:48</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44400.77555555556</v>
       </c>
       <c r="I309" t="n">
         <v>4</v>
@@ -23080,10 +22480,8 @@
           <t>4974171476</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:44</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44400.77550925926</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23159,10 +22557,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:35</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44400.77540509259</v>
       </c>
       <c r="I311" t="n">
         <v>25</v>
@@ -23222,10 +22618,8 @@
           <t>4974050493</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:11</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44400.77512731482</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23298,10 +22692,8 @@
           <t>4974177644</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:36:01</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44400.77501157407</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23361,10 +22753,8 @@
           <t>4974171476</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:57</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44400.77496527778</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23440,10 +22830,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:44</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44400.77481481482</v>
       </c>
       <c r="I315" t="n">
         <v>9</v>
@@ -23511,10 +22899,8 @@
           <t>4974174203</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:31</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44400.77466435185</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23590,10 +22976,8 @@
           <t>4974173691</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:18</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44400.77451388889</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -23661,10 +23045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:03</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44400.77434027778</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23736,10 +23118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:57</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44400.77427083333</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23815,10 +23195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:51</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44400.77420138889</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23882,10 +23260,8 @@
           <t>4974171476</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:18</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44400.77381944445</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23961,10 +23337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:16</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44400.77379629629</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24028,10 +23402,8 @@
           <t>4974084379</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:13</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44400.77376157408</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24095,10 +23467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:33:36</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44400.77333333333</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24174,10 +23544,8 @@
           <t>4974154767</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:33:00</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44400.77291666667</v>
       </c>
       <c r="I325" t="n">
         <v>7</v>
@@ -24253,10 +23621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:32:31</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44400.77258101852</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24324,10 +23690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:32:31</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44400.77258101852</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24391,10 +23755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:32:29</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44400.77255787037</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24466,10 +23828,8 @@
           <t>4974150972</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:32</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44400.77189814814</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24529,10 +23889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:17</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44400.77172453704</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24608,10 +23966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:06</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44400.77159722222</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24688,10 +24044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:52</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44400.77143518518</v>
       </c>
       <c r="I332" t="n">
         <v>11</v>
@@ -24759,10 +24113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:48</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44400.77138888889</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24830,10 +24182,8 @@
           <t>4974143471</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:35</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44400.77123842593</v>
       </c>
       <c r="I334" t="n">
         <v>90</v>
@@ -24901,10 +24251,8 @@
           <t>4974143080</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:26</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44400.77113425926</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24964,10 +24312,8 @@
           <t>4974050130</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:17</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44400.77103009259</v>
       </c>
       <c r="I336" t="n">
         <v>4</v>
@@ -25043,10 +24389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:29:56</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44400.77078703704</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25114,10 +24458,8 @@
           <t>4974140647</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:29:31</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44400.77049768518</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25189,10 +24531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:28:45</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44400.76996527778</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25269,10 +24609,8 @@
           <t>4974019862</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:28:12</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44400.76958333333</v>
       </c>
       <c r="I340" t="n">
         <v>7</v>
@@ -25341,10 +24679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:53</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44400.76936342593</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25420,10 +24756,8 @@
           <t>4974117145</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:44</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44400.76925925926</v>
       </c>
       <c r="I342" t="n">
         <v>357</v>
@@ -25487,10 +24821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:38</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44400.76918981481</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25566,10 +24898,8 @@
           <t>4974114249</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:06</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44400.76881944444</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25637,10 +24967,8 @@
           <t>4974120246</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:03</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44400.76878472222</v>
       </c>
       <c r="I345" t="n">
         <v>4</v>
@@ -25704,10 +25032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:40</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44400.76851851852</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25771,10 +25097,8 @@
           <t>4974112995</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:37</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44400.7684837963</v>
       </c>
       <c r="I347" t="n">
         <v>3</v>
@@ -25834,10 +25158,8 @@
           <t>4974050130</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:08</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44400.76814814815</v>
       </c>
       <c r="I348" t="n">
         <v>6</v>
@@ -25901,10 +25223,8 @@
           <t>4974107613</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:25:54</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44400.76798611111</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25972,10 +25292,8 @@
           <t>4974110704</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:25:45</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44400.76788194444</v>
       </c>
       <c r="I350" t="n">
         <v>13</v>
@@ -26047,10 +25365,8 @@
           <t>4974101157</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:25:13</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44400.76751157407</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -26118,10 +25434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:25:10</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44400.76747685186</v>
       </c>
       <c r="I352" t="n">
         <v>6</v>
@@ -26189,10 +25503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:25:05</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44400.76741898148</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26269,10 +25581,8 @@
           <t>4974100459</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:54</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44400.76729166666</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26336,10 +25646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:49</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44400.76723379629</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26411,10 +25719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:40</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44400.76712962963</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26482,10 +25788,8 @@
           <t>4974050130</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:22</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44400.76692129629</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -26561,10 +25865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:04</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44400.76671296296</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26632,10 +25934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:03</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44400.76670138889</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26711,10 +26011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:40</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44400.76643518519</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26778,10 +26076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:31</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44400.76633101852</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26841,10 +26137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:26</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44400.76627314815</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26920,10 +26214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:25</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44400.76626157408</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26995,10 +26287,8 @@
           <t>4974084379</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:21</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44400.76621527778</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -27066,10 +26356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:52</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44400.76587962963</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27145,10 +26433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:42</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44400.76576388889</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27216,10 +26502,8 @@
           <t>4974082317</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:35</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44400.76568287037</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27283,10 +26567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:33</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44400.76565972222</v>
       </c>
       <c r="I368" t="n">
         <v>22</v>
@@ -27354,10 +26636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:30</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44400.765625</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27429,10 +26709,8 @@
           <t>4974081752</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:22</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44400.76553240741</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27496,10 +26774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:08</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44400.76537037037</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27563,10 +26839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:06</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44400.76534722222</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27642,10 +26916,8 @@
           <t>4974050493</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:02</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44400.76530092592</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27758,10 +27030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:21:48</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44400.76513888889</v>
       </c>
       <c r="I374" t="n">
         <v>7</v>
@@ -27825,10 +27095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:21:37</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44400.76501157408</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27900,10 +27168,8 @@
           <t>4974072379</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:21:19</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44400.76480324074</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27975,10 +27241,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:21:18</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44400.76479166667</v>
       </c>
       <c r="I377" t="n">
         <v>22</v>
@@ -28046,10 +27310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:21:06</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44400.76465277778</v>
       </c>
       <c r="I378" t="n">
         <v>4</v>
@@ -28117,10 +27379,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:21:04</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44400.76462962963</v>
       </c>
       <c r="I379" t="n">
         <v>11</v>
@@ -28184,10 +27444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:55</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44400.76452546296</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28259,10 +27517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:55</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44400.76452546296</v>
       </c>
       <c r="I381" t="n">
         <v>528</v>
@@ -28338,10 +27594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:41</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44400.76436342593</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28413,10 +27667,8 @@
           <t>4974064669</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:38</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44400.76432870371</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28489,10 +27741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:31</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44400.76424768518</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28558,10 +27808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:19</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44400.7641087963</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28629,10 +27877,8 @@
           <t>4974053885</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:17</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44400.76408564814</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -28708,10 +27954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:12</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44400.76402777778</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28783,10 +28027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:06</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44400.76395833334</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28850,10 +28092,8 @@
           <t>4974065647</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:05</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44400.76394675926</v>
       </c>
       <c r="I389" t="n">
         <v>4</v>
@@ -28921,10 +28161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:20:03</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44400.76392361111</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28996,10 +28234,8 @@
           <t>4974065086</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:52</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44400.7637962963</v>
       </c>
       <c r="I391" t="n">
         <v>128</v>
@@ -29063,10 +28299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:46</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44400.76372685185</v>
       </c>
       <c r="I392" t="n">
         <v>3</v>
@@ -29130,10 +28364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:43</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44400.76369212963</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29201,10 +28433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:41</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44400.76366898148</v>
       </c>
       <c r="I394" t="n">
         <v>4</v>
@@ -29280,10 +28510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:33</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44400.76357638889</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29351,10 +28579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:30</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44400.76354166667</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29426,10 +28652,8 @@
           <t>4974053885</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:25</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44400.7634837963</v>
       </c>
       <c r="I397" t="n">
         <v>12</v>
@@ -29505,10 +28729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:24</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44400.76347222222</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29584,10 +28806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:18</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44400.76340277777</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29663,10 +28883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:12</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44400.76333333334</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29730,10 +28948,8 @@
           <t>4974050493</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:11</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44400.76332175926</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29797,10 +29013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:10</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44400.76331018518</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29872,10 +29086,8 @@
           <t>4974052783</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:01</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44400.76320601852</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29943,10 +29155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:50</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44400.76307870371</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30014,10 +29224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:45</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44400.76302083334</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30081,10 +29289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:44</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44400.76300925926</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30148,10 +29354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:40</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44400.76296296297</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30228,10 +29432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:32</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44400.76287037037</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30299,10 +29501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:28</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44400.76282407407</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30366,10 +29566,8 @@
           <t>4974050493</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:08</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44400.76259259259</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30441,10 +29639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:00</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44400.7625</v>
       </c>
       <c r="I411" t="n">
         <v>7</v>
@@ -30512,10 +29708,8 @@
           <t>4974050130</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:00</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44400.7625</v>
       </c>
       <c r="I412" t="n">
         <v>165</v>
@@ -30579,10 +29773,8 @@
           <t>4974039492</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:47</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44400.76234953704</v>
       </c>
       <c r="I413" t="n">
         <v>23</v>
@@ -30656,10 +29848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:24</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44400.76208333333</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30723,10 +29913,8 @@
           <t>4974043522</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:24</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44400.76208333333</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30798,10 +29986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:20</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44400.76203703704</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30869,10 +30055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:11</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44400.76193287037</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30944,10 +30128,8 @@
           <t>4974038079</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:09</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44400.76190972222</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31023,10 +30205,8 @@
           <t>4974019862</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:07</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44400.76188657407</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31102,10 +30282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:58</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44400.7617824074</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31173,10 +30351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:43</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44400.7616087963</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31236,10 +30412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:41</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44400.76158564815</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31311,10 +30485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:21</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44400.76135416667</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31390,10 +30562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:19</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44400.76133101852</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31469,10 +30639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:18</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44400.76131944444</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31536,10 +30704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:04</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44400.76115740741</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31611,10 +30777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:00</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44400.76111111111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31690,10 +30854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:55</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44400.76105324074</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31765,10 +30927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:52</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44400.76101851852</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31840,10 +31000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:48</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44400.76097222222</v>
       </c>
       <c r="I430" t="n">
         <v>3</v>
@@ -31907,10 +31065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:36</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44400.76083333333</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31986,10 +31142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:27</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44400.76072916666</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -32053,10 +31207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:12</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44400.76055555556</v>
       </c>
       <c r="I433" t="n">
         <v>3</v>
@@ -32120,10 +31272,8 @@
           <t>4974023681</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:11</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44400.76054398148</v>
       </c>
       <c r="I434" t="n">
         <v>3</v>
@@ -32201,10 +31351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:09</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44400.76052083333</v>
       </c>
       <c r="I435" t="n">
         <v>5</v>
@@ -32268,10 +31416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:09</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44400.76052083333</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32335,10 +31481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:07</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44400.76049768519</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32407,10 +31551,8 @@
           <t>4974023427</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:05</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44400.76047453703</v>
       </c>
       <c r="I438" t="n">
         <v>6</v>
@@ -32486,10 +31628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:02</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44400.76043981482</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32553,10 +31693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:01</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44400.76042824074</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32632,10 +31770,8 @@
           <t>4974030659</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:01</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44400.76042824074</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32699,10 +31835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:00</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44400.76041666666</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32770,10 +31904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:57</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44400.76038194444</v>
       </c>
       <c r="I443" t="n">
         <v>155</v>
@@ -32841,10 +31973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:57</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44400.76038194444</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32913,10 +32043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:54</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44400.76034722223</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32980,10 +32108,8 @@
           <t>4974022964</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:53</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44400.76033564815</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33047,10 +32173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:48</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44400.76027777778</v>
       </c>
       <c r="I447" t="n">
         <v>34</v>
@@ -33127,10 +32251,8 @@
           <t>4974030128</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:48</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44400.76027777778</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -33198,10 +32320,8 @@
           <t>4974026555</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:47</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44400.7602662037</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33269,10 +32389,8 @@
           <t>4974022652</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:45</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44400.76024305556</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33348,10 +32466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:44</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44400.76023148148</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33419,10 +32535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:42</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44400.76020833333</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33486,10 +32600,8 @@
           <t>4974019862</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:41</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44400.76019675926</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33557,10 +32669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:36</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44400.76013888889</v>
       </c>
       <c r="I454" t="n">
         <v>10</v>
@@ -33629,10 +32739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:29</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44400.76005787037</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33700,10 +32808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:27</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44400.76003472223</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33779,10 +32885,8 @@
           <t>4974019025</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:20</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44400.7599537037</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
@@ -33850,10 +32954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:18</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44400.75993055556</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33925,10 +33027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:16</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44400.75990740741</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34000,10 +33100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:10</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44400.75983796296</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34079,10 +33177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:10</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44400.75983796296</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34142,10 +33238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:03</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44400.75975694445</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34217,10 +33311,8 @@
           <t>4974014610</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:02</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44400.75974537037</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34288,10 +33380,8 @@
           <t>4974018195</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:01</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44400.75973379629</v>
       </c>
       <c r="I464" t="n">
         <v>137</v>
@@ -34367,10 +33457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:58</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44400.75969907407</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34442,10 +33530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:44</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44400.75953703704</v>
       </c>
       <c r="I466" t="n">
         <v>52</v>
@@ -34521,10 +33607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:43</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44400.75952546296</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34600,10 +33684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:41</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44400.75950231482</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34679,10 +33761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:39</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44400.75947916666</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34742,10 +33822,8 @@
           <t>4974013514</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:38</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44400.75946759259</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34818,10 +33896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:37</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44400.75945601852</v>
       </c>
       <c r="I471" t="n">
         <v>2</v>
@@ -34897,10 +33973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:29</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44400.75936342592</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34964,10 +34038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:28</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44400.75935185186</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35043,10 +34115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:28</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44400.75935185186</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35122,10 +34192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:26</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44400.7593287037</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35197,10 +34265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:22</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44400.75928240741</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35272,10 +34338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:10</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44400.75914351852</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35347,10 +34411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:10</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44400.75914351852</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35422,10 +34484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:13:01</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44400.75903935185</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35485,10 +34545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:59</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44400.7590162037</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35560,10 +34618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:57</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44400.75899305556</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35623,10 +34679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:55</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44400.75896990741</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35690,10 +34744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:54</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44400.75895833333</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35757,10 +34809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:50</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44400.75891203704</v>
       </c>
       <c r="I484" t="n">
         <v>4</v>
@@ -35828,10 +34878,8 @@
           <t>4974011124</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:47</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44400.75887731482</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35895,10 +34943,8 @@
           <t>4974008162</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:47</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44400.75887731482</v>
       </c>
       <c r="I486" t="n">
         <v>3</v>
@@ -35966,10 +35012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:42</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44400.75881944445</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36045,10 +35089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:37</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44400.75876157408</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36112,10 +35154,8 @@
           <t>4974004311</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:32</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44400.7587037037</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36191,10 +35231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:30</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44400.75868055555</v>
       </c>
       <c r="I490" t="n">
         <v>16</v>
@@ -36262,10 +35300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:29</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44400.75866898148</v>
       </c>
       <c r="I491" t="n">
         <v>66</v>
@@ -36341,10 +35377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:26</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44400.75863425926</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36408,10 +35442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:26</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44400.75863425926</v>
       </c>
       <c r="I493" t="n">
         <v>129</v>
@@ -36471,10 +35503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:26</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44400.75863425926</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36538,10 +35568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:24</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44400.75861111111</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36613,10 +35641,8 @@
           <t>4974010098</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:24</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44400.75861111111</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36688,10 +35714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:21</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44400.75857638889</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36763,10 +35787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:15</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44400.75850694445</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36842,10 +35864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:11</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44400.75846064815</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -36913,10 +35933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:12:11</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44400.75846064815</v>
       </c>
       <c r="I500" t="n">
         <v>3148</v>
@@ -36989,10 +36007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:59</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44400.75832175926</v>
       </c>
       <c r="I501" t="n">
         <v>4</v>
@@ -37060,10 +36076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:55</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44400.75827546296</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37139,10 +36153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:54</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44400.75826388889</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37218,10 +36230,8 @@
           <t>4974006115</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:52</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44400.75824074074</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37289,10 +36299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:50</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44400.75821759259</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37368,10 +36376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:49</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44400.75820601852</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37447,10 +36453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:41</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44400.75811342592</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37526,10 +36530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:36</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44400.75805555555</v>
       </c>
       <c r="I508" t="n">
         <v>1259</v>
@@ -37593,10 +36595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:34</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44400.75803240741</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37669,10 +36669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:26</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44400.75793981482</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37748,10 +36746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:26</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44400.75793981482</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37827,10 +36823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:22</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44400.75789351852</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37898,10 +36892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:19</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44400.7578587963</v>
       </c>
       <c r="I513" t="n">
         <v>612</v>
@@ -37977,10 +36969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:13</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44400.75778935185</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38048,10 +37038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:10</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44400.75775462963</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38119,10 +37107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:09</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44400.75774305555</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38186,10 +37172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:08</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44400.75773148148</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38265,10 +37249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:07</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44400.75771990741</v>
       </c>
       <c r="I518" t="n">
         <v>2</v>
@@ -38344,10 +37326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:07</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44400.75771990741</v>
       </c>
       <c r="I519" t="n">
         <v>19</v>
@@ -38411,10 +37391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:11:00</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44400.75763888889</v>
       </c>
       <c r="I520" t="n">
         <v>324</v>
@@ -38499,10 +37477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:59</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44400.75762731482</v>
       </c>
       <c r="I521" t="n">
         <v>12</v>
@@ -38570,10 +37546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:59</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44400.75762731482</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38637,10 +37611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:59</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44400.75762731482</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38708,10 +37680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:59</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44400.75762731482</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38787,10 +37757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:58</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44400.75761574074</v>
       </c>
       <c r="I525" t="n">
         <v>6</v>
@@ -38854,10 +37822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:52</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44400.7575462963</v>
       </c>
       <c r="I526" t="n">
         <v>28</v>
@@ -38922,10 +37888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:50</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44400.75752314815</v>
       </c>
       <c r="I527" t="n">
         <v>2</v>
@@ -38985,10 +37949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:45</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44400.75746527778</v>
       </c>
       <c r="I528" t="n">
         <v>2</v>
@@ -39060,10 +38022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:44</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44400.75745370371</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -39127,10 +38087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:43</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44400.75744212963</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39206,10 +38164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:42</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44400.75743055555</v>
       </c>
       <c r="I531" t="n">
         <v>9</v>
@@ -39285,10 +38241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:41</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44400.75741898148</v>
       </c>
       <c r="I532" t="n">
         <v>2</v>
@@ -39352,10 +38306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:39</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44400.75739583333</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39415,10 +38367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:38</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44400.75738425926</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39486,10 +38436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:37</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44400.75737268518</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39549,10 +38497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:36</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44400.75736111111</v>
       </c>
       <c r="I536" t="n">
         <v>2</v>
@@ -39620,10 +38566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:35</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44400.75734953704</v>
       </c>
       <c r="I537" t="n">
         <v>3</v>
@@ -39699,10 +38643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:34</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44400.75733796296</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39774,10 +38716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:33</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44400.75732638889</v>
       </c>
       <c r="I539" t="n">
         <v>6</v>
@@ -39845,10 +38785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:30</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44400.75729166667</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39920,10 +38858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:28</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44400.75726851852</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39999,10 +38935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:28</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44400.75726851852</v>
       </c>
       <c r="I542" t="n">
         <v>244</v>
@@ -40066,10 +39000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:28</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44400.75726851852</v>
       </c>
       <c r="I543" t="n">
         <v>2</v>
@@ -40145,10 +39077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:24</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44400.75722222222</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40224,10 +39154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:24</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44400.75722222222</v>
       </c>
       <c r="I545" t="n">
         <v>2</v>
@@ -40299,10 +39227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:23</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44400.75721064815</v>
       </c>
       <c r="I546" t="n">
         <v>2</v>
@@ -40370,10 +39296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:20</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44400.75717592592</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -40445,10 +39369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:16</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44400.75712962963</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40521,10 +39443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:10:16</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44400.75712962963</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
